--- a/group.xlsx
+++ b/group.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc404225\Documents\Broadcom\Scripting\FOS_Automation\applications\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Consoli\Documents\cs\scripts\brocade-rest-api-applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F85FB-B056-459A-A897-B001F0289C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16570" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="parameters" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -145,12 +146,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The purpose of this workbook is to define a group of ports. Although the intent of port groups was to examine port usage of server clusters or storage enclosures, any groups of ports can be defined. This is typically done to evaluate the balance of work load across all interfaces.</t>
-  </si>
-  <si>
-    <t>The intent of this workbook is for use with the -group option in report.py. Since the output of report.py articulates the switch and port, those ports can be used with stats_g.py to graph port statistics for the group.</t>
-  </si>
-  <si>
     <t>Groups can be defined by login WWN, the alias for the login WWN, specific switch and port pairs, or by zone. Since it’s common to defined server enclosures and storage arrays with certain naming conventions, groups can be defined using regex and wild card matching. Rather than provide a detailed explanation of how the group definitions work, some of the group definitions used to test the scripts were left on the parameters sheet.</t>
   </si>
   <si>
@@ -169,12 +164,6 @@
     <t>Alias – Alias for the login WWN</t>
   </si>
   <si>
-    <t>switch;port – The switch may be defined by the switch WWN or user defined switch name. The port is defined using standard s/p notation.</t>
-  </si>
-  <si>
-    <t>switch;port_name – Same as switch;port except that the port is defined by the user defined port name.</t>
-  </si>
-  <si>
     <t>Zone – Zone name</t>
   </si>
   <si>
@@ -194,12 +183,70 @@
   </si>
   <si>
     <t>The string must match exactly.</t>
+  </si>
+  <si>
+    <t>The intent of this workbook is for use with the -group option in report.py and stats_g.py. Since the output of report.py articulates the switch and port, those ports can be used with stats_g.py to graph port statistics for the group.</t>
+  </si>
+  <si>
+    <t>The purpose of this workbook is to define a group of ports. Although the intent of port groups was to examine port usage of server clusters or storage enclosures, any groups of ports can be defined. Typically, SAN admins use a simple alias naming convention so that it's easy to identify a server or storage cluster by and alias prefix. In that case, you would only name the group,  Set Filter to "Alias", the Operand to "some_prefix_*", and the Operator to "Wild".</t>
+  </si>
+  <si>
+    <r>
+      <t>switch;port – The switch may be defined by the switch WWN or user defined switch name. The port is defined using standard s/p notation.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WARNING: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wild cards or regex are applied to the port only.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">switch;port_name – Same as switch;port except that the port is defined by the user defined port name.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WARNING:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Wild cards or regex are applied to the port only.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,10 +779,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1061,170 +1108,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="9" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>parameters!A1</f>
         <v>Group</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>parameters!B1</f>
         <v>Filter</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>parameters!C1</f>
         <v>Operand</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>parameters!D1</f>
         <v>Operator</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1243,23 +1290,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1276,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1293,14 +1340,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1317,14 +1364,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1341,14 +1388,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1365,7 +1412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1382,7 +1429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1399,14 +1446,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1420,17 +1467,17 @@
         <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1447,14 +1494,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1471,28 +1518,28 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1501,10 +1548,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"regex-m,regex-s,wild,exact"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"WWN,Alias,switch;port,switch;port_name,Zone"</formula1>
     </dataValidation>
   </dataValidations>

--- a/group.xlsx
+++ b/group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Consoli\Documents\cs\scripts\brocade-rest-api-applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F85FB-B056-459A-A897-B001F0289C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BA948D-4632-466F-B049-D77A97C1A114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,12 +183,6 @@
   </si>
   <si>
     <t>The string must match exactly.</t>
-  </si>
-  <si>
-    <t>The intent of this workbook is for use with the -group option in report.py and stats_g.py. Since the output of report.py articulates the switch and port, those ports can be used with stats_g.py to graph port statistics for the group.</t>
-  </si>
-  <si>
-    <t>The purpose of this workbook is to define a group of ports. Although the intent of port groups was to examine port usage of server clusters or storage enclosures, any groups of ports can be defined. Typically, SAN admins use a simple alias naming convention so that it's easy to identify a server or storage cluster by and alias prefix. In that case, you would only name the group,  Set Filter to "Alias", the Operand to "some_prefix_*", and the Operator to "Wild".</t>
   </si>
   <si>
     <r>
@@ -241,6 +235,12 @@
       </rPr>
       <t xml:space="preserve"> Wild cards or regex are applied to the port only.</t>
     </r>
+  </si>
+  <si>
+    <t>The purpose of this workbook is to define a group of ports. Although the intent of port groups was to examine port usage of server clusters or storage enclosures, any groups of ports can be defined. The examples on the "parameters" sheet was used for test. It was left in as an example of how to do everything. Typically, SAN admins use a simple alias naming convention so that it's easy to identify a server or storage cluster by and alias prefix. In that case, you would only name the group,  Set Filter to "Alias", the Operand to "some_prefix_*", and the Operator to "Wild".</t>
+  </si>
+  <si>
+    <t>This workbook is intended for use with the -group option in report.py and stats_g.py.</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,16 +1122,16 @@
     <col min="3" max="3" width="68.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1193,7 +1193,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
